--- a/Prestador/neomater/resultado/relatorio_neomater_COMPLETO.xlsx
+++ b/Prestador/neomater/resultado/relatorio_neomater_COMPLETO.xlsx
@@ -550,40 +550,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -675,7 +675,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -851,13 +851,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -866,25 +866,25 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -903,31 +903,31 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1050,13 +1050,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1109,40 +1109,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M17" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/neomater/resultado/relatorio_neomater_COMPLETO.xlsx
+++ b/Prestador/neomater/resultado/relatorio_neomater_COMPLETO.xlsx
@@ -550,40 +550,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>4</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>8</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -851,28 +851,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -894,29 +894,29 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>9</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1109,40 +1109,40 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>4</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
         <v>12</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>20</v>
-      </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/neomater/resultado/relatorio_neomater_COMPLETO.xlsx
+++ b/Prestador/neomater/resultado/relatorio_neomater_COMPLETO.xlsx
@@ -507,22 +507,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -531,13 +531,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -863,25 +863,25 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -894,20 +894,20 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>2</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1124,25 +1124,25 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M17" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/neomater/resultado/relatorio_neomater_COMPLETO.xlsx
+++ b/Prestador/neomater/resultado/relatorio_neomater_COMPLETO.xlsx
@@ -507,22 +507,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -531,13 +531,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -559,31 +559,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -860,13 +860,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -903,31 +903,31 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -964,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1118,13 +1118,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="L17" t="n">
         <v>16</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/neomater/resultado/relatorio_neomater_COMPLETO.xlsx
+++ b/Prestador/neomater/resultado/relatorio_neomater_COMPLETO.xlsx
@@ -550,40 +550,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -851,13 +851,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -872,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -946,28 +946,28 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1023,40 +1023,40 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1109,40 +1109,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>8</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/neomater/resultado/relatorio_neomater_COMPLETO.xlsx
+++ b/Prestador/neomater/resultado/relatorio_neomater_COMPLETO.xlsx
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -559,31 +559,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -851,40 +851,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -894,37 +894,37 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>2</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -952,22 +952,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1118,31 +1118,31 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>31</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>11</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>12</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>31</v>
-      </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M17" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
